--- a/Statistics for Data Science and Business Analysis/Section 4/2.8.Skewness-exercise.xlsx
+++ b/Statistics for Data Science and Business Analysis/Section 4/2.8.Skewness-exercise.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86475901-C8CE-47E8-815E-7746D70BDA7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skewness" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Skewness!$B$10:$B$39</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Skewness!$B$10:$B$39</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Skewness!$B$10:$B$39</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Skewness!$B$10:$B$39</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Skewness!$L$10:$L$39</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Skewness</t>
   </si>
@@ -54,12 +70,30 @@
   <si>
     <t>Identify the skewness of dataset 2. You may use the formula from the lesson, the skewness formula in excel (=SKEW) or you can plot it on a graph</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Coeficiente de asmietría =</t>
+  </si>
+  <si>
+    <t>Mean &gt; Median: Right (Positive) Skew</t>
+  </si>
+  <si>
+    <t>Mean &lt; Median: Left (Negative) Skew</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +117,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF002060"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -123,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -131,7 +171,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,6 +215,1469 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Right (Positive) Skew</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Right (Positive) Skew</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{1A130AD0-F095-4FF5-B74B-5E21724CDF31}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="7"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Left (Negative) Skew</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Left (Negative) Skew</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{1A130AD0-F095-4FF5-B74B-5E21724CDF31}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="7"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Gráfico 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFB0658-3706-4880-9548-E5193A9F522C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1409700" y="2657475"/>
+              <a:ext cx="4848226" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Gráfico 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183695CF-46D4-4720-8EC1-6FCCBCA24769}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7572374" y="2657475"/>
+              <a:ext cx="5095876" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,26 +1942,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="8.85546875" style="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="1"/>
+    <col min="16" max="16" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -438,7 +1977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -446,7 +1985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -454,10 +1993,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
     </row>
-    <row r="9" spans="2:15" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
@@ -471,27 +2010,65 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>212</v>
       </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="L10" s="1">
         <v>586</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" ht="12" x14ac:dyDescent="0.25">
+      <c r="N10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>869</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="7">
+        <f>AVERAGE(B10:B39)</f>
+        <v>370.03333333333336</v>
+      </c>
+      <c r="E11" s="11">
+        <f>MEDIAN(B10:B39)</f>
+        <v>339</v>
+      </c>
+      <c r="F11" s="8" t="e">
+        <f>_xlfn.MODE.SNGL(B10:B39)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L11" s="1">
         <v>760</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N11" s="11">
+        <f>AVERAGE(L10:L39)</f>
+        <v>603.73333333333335</v>
+      </c>
+      <c r="O11" s="11">
+        <f>MEDIAN(L10:L39)</f>
+        <v>654.5</v>
+      </c>
+      <c r="P11" s="12" t="e">
+        <f>_xlfn.MODE.SNGL(L10:L39)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>220</v>
       </c>
@@ -499,31 +2076,52 @@
         <v>495</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>654</v>
       </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L13" s="1">
         <v>678</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>511</v>
       </c>
       <c r="L14" s="1">
         <v>559</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="2:16" s="13" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
         <v>624</v>
       </c>
-      <c r="L15" s="1">
+      <c r="D15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <f>SKEW(B10:B39)</f>
+        <v>0.63098801196505716</v>
+      </c>
+      <c r="L15" s="15">
         <v>415</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="13">
+        <f>SKEW(L10:L39)</f>
+        <v>-0.37064131089909302</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>420</v>
       </c>
@@ -718,5 +2316,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>